--- a/combined_airline_data.xlsx
+++ b/combined_airline_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josti\OneDrive\Desktop\Gitlab clone\LDR\FlightViz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DED61F75-81EF-456D-84B2-3D66E05917AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA6B4E69-5385-44F9-AC3C-A79DFEAF85B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -11723,7 +11723,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -12201,13 +12201,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -12267,7 +12266,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Editor" refreshedDate="45401.720822222225" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="2032">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Editor" refreshedDate="45401.720822222225" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="2032" xr:uid="{00000000-000A-0000-FFFF-FFFF03000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:H2033" sheet="combined_airline_data"/>
   </cacheSource>
@@ -32672,7 +32671,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B44" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" showAll="0">
@@ -33170,10 +33169,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:B44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -33195,7 +33194,7 @@
       <c r="A4" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4">
         <v>56</v>
       </c>
     </row>
@@ -33203,7 +33202,7 @@
       <c r="A5" s="2" t="s">
         <v>1752</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5">
         <v>2</v>
       </c>
     </row>
@@ -33211,7 +33210,7 @@
       <c r="A6" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6">
         <v>23</v>
       </c>
     </row>
@@ -33219,7 +33218,7 @@
       <c r="A7" s="2" t="s">
         <v>1974</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7">
         <v>3</v>
       </c>
     </row>
@@ -33227,7 +33226,7 @@
       <c r="A8" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8">
         <v>18</v>
       </c>
     </row>
@@ -33235,7 +33234,7 @@
       <c r="A9" s="2" t="s">
         <v>780</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9">
         <v>4</v>
       </c>
     </row>
@@ -33243,7 +33242,7 @@
       <c r="A10" s="2" t="s">
         <v>1084</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10">
         <v>10</v>
       </c>
     </row>
@@ -33251,7 +33250,7 @@
       <c r="A11" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11">
         <v>32</v>
       </c>
     </row>
@@ -33259,7 +33258,7 @@
       <c r="A12" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12">
         <v>68</v>
       </c>
     </row>
@@ -33267,7 +33266,7 @@
       <c r="A13" s="2" t="s">
         <v>1435</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13">
         <v>8</v>
       </c>
     </row>
@@ -33275,7 +33274,7 @@
       <c r="A14" s="2" t="s">
         <v>1101</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14">
         <v>12</v>
       </c>
     </row>
@@ -33283,7 +33282,7 @@
       <c r="A15" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15">
         <v>6</v>
       </c>
     </row>
@@ -33291,7 +33290,7 @@
       <c r="A16" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16">
         <v>37</v>
       </c>
     </row>
@@ -33299,7 +33298,7 @@
       <c r="A17" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17">
         <v>4</v>
       </c>
     </row>
@@ -33307,7 +33306,7 @@
       <c r="A18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18">
         <v>893</v>
       </c>
     </row>
@@ -33315,7 +33314,7 @@
       <c r="A19" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19">
         <v>16</v>
       </c>
     </row>
@@ -33323,7 +33322,7 @@
       <c r="A20" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20">
         <v>2</v>
       </c>
     </row>
@@ -33331,7 +33330,7 @@
       <c r="A21" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21">
         <v>15</v>
       </c>
     </row>
@@ -33339,7 +33338,7 @@
       <c r="A22" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22">
         <v>6</v>
       </c>
     </row>
@@ -33347,7 +33346,7 @@
       <c r="A23" s="2" t="s">
         <v>699</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23">
         <v>12</v>
       </c>
     </row>
@@ -33355,7 +33354,7 @@
       <c r="A24" s="2" t="s">
         <v>2317</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24">
         <v>2</v>
       </c>
     </row>
@@ -33363,7 +33362,7 @@
       <c r="A25" s="2" t="s">
         <v>1221</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25">
         <v>6</v>
       </c>
     </row>
@@ -33371,7 +33370,7 @@
       <c r="A26" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26">
         <v>138</v>
       </c>
     </row>
@@ -33379,7 +33378,7 @@
       <c r="A27" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27">
         <v>45</v>
       </c>
     </row>
@@ -33387,7 +33386,7 @@
       <c r="A28" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28">
         <v>46</v>
       </c>
     </row>
@@ -33395,7 +33394,7 @@
       <c r="A29" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29">
         <v>28</v>
       </c>
     </row>
@@ -33403,7 +33402,7 @@
       <c r="A30" s="2" t="s">
         <v>1260</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30">
         <v>8</v>
       </c>
     </row>
@@ -33411,7 +33410,7 @@
       <c r="A31" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31">
         <v>6</v>
       </c>
     </row>
@@ -33419,7 +33418,7 @@
       <c r="A32" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32">
         <v>21</v>
       </c>
     </row>
@@ -33427,7 +33426,7 @@
       <c r="A33" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33">
         <v>310</v>
       </c>
     </row>
@@ -33435,7 +33434,7 @@
       <c r="A34" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34">
         <v>6</v>
       </c>
     </row>
@@ -33443,7 +33442,7 @@
       <c r="A35" s="2" t="s">
         <v>1711</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35">
         <v>3</v>
       </c>
     </row>
@@ -33451,7 +33450,7 @@
       <c r="A36" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36">
         <v>22</v>
       </c>
     </row>
@@ -33459,7 +33458,7 @@
       <c r="A37" s="2" t="s">
         <v>1293</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37">
         <v>6</v>
       </c>
     </row>
@@ -33467,7 +33466,7 @@
       <c r="A38" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B38">
         <v>1</v>
       </c>
     </row>
@@ -33475,7 +33474,7 @@
       <c r="A39" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39">
         <v>66</v>
       </c>
     </row>
@@ -33483,7 +33482,7 @@
       <c r="A40" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40">
         <v>3</v>
       </c>
     </row>
@@ -33491,7 +33490,7 @@
       <c r="A41" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41">
         <v>69</v>
       </c>
     </row>
@@ -33499,7 +33498,7 @@
       <c r="A42" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42">
         <v>3</v>
       </c>
     </row>
@@ -33507,7 +33506,7 @@
       <c r="A43" s="2" t="s">
         <v>3895</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B43">
         <v>16</v>
       </c>
     </row>
@@ -33515,7 +33514,7 @@
       <c r="A44" s="2" t="s">
         <v>3896</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B44">
         <v>2032</v>
       </c>
     </row>
@@ -33525,12 +33524,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H2033"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="25.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
